--- a/Data/raw/pitcher/문성현_1991-11-09.xlsx
+++ b/Data/raw/pitcher/문성현_1991-11-09.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2018" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2020" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,22 +51,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -489,12 +487,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -721,314 +719,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L 3:9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.650</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1095,12 +790,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -2596,6 +2291,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>